--- a/Code/Results/Cases/Case_4_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_252/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6539272195526564</v>
+        <v>0.8666075139614975</v>
       </c>
       <c r="C2">
-        <v>1.052138829122612</v>
+        <v>0.8353175135487731</v>
       </c>
       <c r="D2">
-        <v>0.5377032984198991</v>
+        <v>0.6970035400410381</v>
       </c>
       <c r="E2">
-        <v>0.2390096185839212</v>
+        <v>0.2833392684642462</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008612451096150445</v>
+        <v>0.002678115400934622</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.926428277479204</v>
+        <v>5.715146398380767</v>
       </c>
       <c r="J2">
-        <v>0.1408002769007339</v>
+        <v>0.1466694704149489</v>
       </c>
       <c r="K2">
-        <v>1.535963790621736</v>
+        <v>1.649774853180617</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5666119809544057</v>
+        <v>0.8681249729491185</v>
       </c>
       <c r="C3">
-        <v>0.931517986258882</v>
+        <v>0.8057964673882054</v>
       </c>
       <c r="D3">
-        <v>0.4858564750617802</v>
+        <v>0.6889004766573805</v>
       </c>
       <c r="E3">
-        <v>0.2145126218881543</v>
+        <v>0.2792393688894919</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008731243585789888</v>
+        <v>0.002684530220707585</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.8162929996044</v>
+        <v>5.382151246756905</v>
       </c>
       <c r="J3">
-        <v>0.1252684980116641</v>
+        <v>0.1438630810630315</v>
       </c>
       <c r="K3">
-        <v>1.349300921487128</v>
+        <v>1.627423254682128</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.516400687861136</v>
+        <v>0.8702139311409951</v>
       </c>
       <c r="C4">
-        <v>0.8593774997588355</v>
+        <v>0.7880142068328269</v>
       </c>
       <c r="D4">
-        <v>0.4552207247644446</v>
+        <v>0.6843063218402676</v>
       </c>
       <c r="E4">
-        <v>0.2000222331919801</v>
+        <v>0.2768845755685234</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000880543481674351</v>
+        <v>0.002688664770115384</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.147231472500351</v>
+        <v>5.177040593450783</v>
       </c>
       <c r="J4">
-        <v>0.116069803246269</v>
+        <v>0.1422295955840411</v>
       </c>
       <c r="K4">
-        <v>1.239704374868268</v>
+        <v>1.615216906400576</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4966921454907833</v>
+        <v>0.871354729828937</v>
       </c>
       <c r="C5">
-        <v>0.8303971954817086</v>
+        <v>0.7808534242635687</v>
       </c>
       <c r="D5">
-        <v>0.4430033702252274</v>
+        <v>0.6825296678792938</v>
       </c>
       <c r="E5">
-        <v>0.1942394290081708</v>
+        <v>0.2759656735488107</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008836022852719308</v>
+        <v>0.002690399074928368</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.877186308195178</v>
+        <v>5.093282016610061</v>
       </c>
       <c r="J5">
-        <v>0.1123957286626975</v>
+        <v>0.1415863492707956</v>
       </c>
       <c r="K5">
-        <v>1.196150960587062</v>
+        <v>1.610622450493565</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4934622746131652</v>
+        <v>0.8715616033363176</v>
       </c>
       <c r="C6">
-        <v>0.8256084752323432</v>
+        <v>0.7796695303866272</v>
       </c>
       <c r="D6">
-        <v>0.4409898790548539</v>
+        <v>0.682240414055201</v>
       </c>
       <c r="E6">
-        <v>0.1932861322265396</v>
+        <v>0.2758155432478873</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008841124463063749</v>
+        <v>0.002690690046953119</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.832487569390452</v>
+        <v>5.079363127211934</v>
       </c>
       <c r="J6">
-        <v>0.1117898646542841</v>
+        <v>0.141480888599375</v>
       </c>
       <c r="K6">
-        <v>1.188981732254774</v>
+        <v>1.609882425042883</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5161319690919299</v>
+        <v>0.870228145952666</v>
       </c>
       <c r="C7">
-        <v>0.8589850520846198</v>
+        <v>0.7879172883505419</v>
       </c>
       <c r="D7">
-        <v>0.4550549189724791</v>
+        <v>0.6842819750262663</v>
       </c>
       <c r="E7">
-        <v>0.1999437700039124</v>
+        <v>0.2768720183964177</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008805845853281968</v>
+        <v>0.002688687959255764</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.143579702683098</v>
+        <v>5.175911716005459</v>
       </c>
       <c r="J7">
-        <v>0.1160199648791931</v>
+        <v>0.1422208299626746</v>
       </c>
       <c r="K7">
-        <v>1.239112701206921</v>
+        <v>1.615153408899005</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6230496477895997</v>
+        <v>0.8668896549933152</v>
       </c>
       <c r="C8">
-        <v>1.010108134228602</v>
+        <v>0.8250668001232953</v>
       </c>
       <c r="D8">
-        <v>0.519555800351327</v>
+        <v>0.6941302798307731</v>
       </c>
       <c r="E8">
-        <v>0.2304382521717798</v>
+        <v>0.2818917704560278</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008653176136127742</v>
+        <v>0.002680286708672217</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.54069024254747</v>
+        <v>5.60045800844722</v>
       </c>
       <c r="J8">
-        <v>0.1353680796106786</v>
+        <v>0.145683139980612</v>
       </c>
       <c r="K8">
-        <v>1.470463526011002</v>
+        <v>1.641751875347524</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8650656137334352</v>
+        <v>0.8695945567912702</v>
       </c>
       <c r="C9">
-        <v>1.325121525796021</v>
+        <v>0.9006863102993634</v>
       </c>
       <c r="D9">
-        <v>0.6573464990062803</v>
+        <v>0.7164849389782546</v>
       </c>
       <c r="E9">
-        <v>0.2954642892210018</v>
+        <v>0.293034620697064</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008361668847940422</v>
+        <v>0.002665356450182352</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.40905883263912</v>
+        <v>6.428359953805028</v>
       </c>
       <c r="J9">
-        <v>0.1765394503406483</v>
+        <v>0.1531905914738587</v>
       </c>
       <c r="K9">
-        <v>1.971958624178228</v>
+        <v>1.706046155298111</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.071555618422508</v>
+        <v>0.8773234035767246</v>
       </c>
       <c r="C10">
-        <v>1.573579184794369</v>
+        <v>0.9579972347166859</v>
       </c>
       <c r="D10">
-        <v>0.7684445792709198</v>
+        <v>0.7347915734137871</v>
       </c>
       <c r="E10">
-        <v>0.3478420550485737</v>
+        <v>0.3020276605219081</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.000814891599936223</v>
+        <v>0.002655315834802678</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.6424298415196</v>
+        <v>7.034584969946252</v>
       </c>
       <c r="J10">
-        <v>0.209667030594062</v>
+        <v>0.159153970347802</v>
       </c>
       <c r="K10">
-        <v>2.382901215462084</v>
+        <v>1.760821337617585</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.174267283768387</v>
+        <v>0.882109067168102</v>
       </c>
       <c r="C11">
-        <v>1.69188040335132</v>
+        <v>0.9844649502055631</v>
       </c>
       <c r="D11">
-        <v>0.8219613347067423</v>
+        <v>0.7435350156981997</v>
       </c>
       <c r="E11">
-        <v>0.3730676120693772</v>
+        <v>0.3062972261427745</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008051494120216462</v>
+        <v>0.002650946956166598</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.69901891578098</v>
+        <v>7.310106922087243</v>
       </c>
       <c r="J11">
-        <v>0.2256188404925581</v>
+        <v>0.1619663494312533</v>
       </c>
       <c r="K11">
-        <v>2.582848658155996</v>
+        <v>1.787408796128517</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.214692915338958</v>
+        <v>0.8841057461811772</v>
       </c>
       <c r="C12">
-        <v>1.737600727254232</v>
+        <v>0.9945457328165048</v>
       </c>
       <c r="D12">
-        <v>0.8427419623059791</v>
+        <v>0.7469061955026461</v>
       </c>
       <c r="E12">
-        <v>0.3828626062933012</v>
+        <v>0.3079399331358061</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008014413116109276</v>
+        <v>0.002649320924890626</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.10633027317652</v>
+        <v>7.414417000860738</v>
       </c>
       <c r="J12">
-        <v>0.2318130060704391</v>
+        <v>0.1630458236218857</v>
       </c>
       <c r="K12">
-        <v>2.660830586671466</v>
+        <v>1.79771944223512</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.205913535322935</v>
+        <v>0.8836674919096765</v>
       </c>
       <c r="C13">
-        <v>1.727710056220701</v>
+        <v>0.9923720588308811</v>
       </c>
       <c r="D13">
-        <v>0.8382420006340112</v>
+        <v>0.7461774655297404</v>
       </c>
       <c r="E13">
-        <v>0.3807415337983144</v>
+        <v>0.3075849903972596</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008022409369010618</v>
+        <v>0.00264966986107071</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.01826341796209</v>
+        <v>7.391952833564972</v>
       </c>
       <c r="J13">
-        <v>0.2304716653512315</v>
+        <v>0.1628126925598963</v>
       </c>
       <c r="K13">
-        <v>2.643927781822413</v>
+        <v>1.795488033302576</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.17756069577905</v>
+        <v>0.882269627625675</v>
       </c>
       <c r="C14">
-        <v>1.69562230340847</v>
+        <v>0.9852931334204982</v>
       </c>
       <c r="D14">
-        <v>0.8236600866679282</v>
+        <v>0.7438111549629411</v>
       </c>
       <c r="E14">
-        <v>0.3738683209980707</v>
+        <v>0.3064318518873819</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008048447869117998</v>
+        <v>0.002650812613884499</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.7323755023134</v>
+        <v>7.318688987138046</v>
       </c>
       <c r="J14">
-        <v>0.2261251873834027</v>
+        <v>0.1620548671213413</v>
       </c>
       <c r="K14">
-        <v>2.589216293611145</v>
+        <v>1.788252183988988</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.160402095150715</v>
+        <v>0.8814374725554615</v>
       </c>
       <c r="C15">
-        <v>1.676093146474216</v>
+        <v>0.9809646746768976</v>
       </c>
       <c r="D15">
-        <v>0.814798191820131</v>
+        <v>0.7423695786784208</v>
       </c>
       <c r="E15">
-        <v>0.3696912545114159</v>
+        <v>0.3057289032594213</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008064369300626595</v>
+        <v>0.002651516271700635</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.55824416134658</v>
+        <v>7.27380999416755</v>
       </c>
       <c r="J15">
-        <v>0.2234837311027889</v>
+        <v>0.1615925687668067</v>
       </c>
       <c r="K15">
-        <v>2.5560122186711</v>
+        <v>1.783851677746554</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.065041510618158</v>
+        <v>0.8770363581663219</v>
       </c>
       <c r="C16">
-        <v>1.565967343202146</v>
+        <v>0.9562755736632766</v>
       </c>
       <c r="D16">
-        <v>0.765014080273005</v>
+        <v>0.7342285717370771</v>
       </c>
       <c r="E16">
-        <v>0.346225008986849</v>
+        <v>0.3017522478784898</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008155261975767325</v>
+        <v>0.002655605331724922</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.57430716345448</v>
+        <v>7.016574916845713</v>
       </c>
       <c r="J16">
-        <v>0.2086444524580742</v>
+        <v>0.1589721930246242</v>
       </c>
       <c r="K16">
-        <v>2.370127917863329</v>
+        <v>1.75911759327505</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.008963342792555</v>
+        <v>0.8746629441981497</v>
       </c>
       <c r="C17">
-        <v>1.499866668461721</v>
+        <v>0.9412319072945934</v>
       </c>
       <c r="D17">
-        <v>0.7352922814342833</v>
+        <v>0.7293411085426271</v>
       </c>
       <c r="E17">
-        <v>0.332214446226601</v>
+        <v>0.2993586035928715</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000821079436882588</v>
+        <v>0.002658164576114101</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.98198651133535</v>
+        <v>6.858713416429197</v>
       </c>
       <c r="J17">
-        <v>0.1997842973207185</v>
+        <v>0.157390304479847</v>
       </c>
       <c r="K17">
-        <v>2.259682358476766</v>
+        <v>1.744373445107584</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9775159361156511</v>
+        <v>0.8734172220201799</v>
       </c>
       <c r="C18">
-        <v>1.462332499213801</v>
+        <v>0.9326164656924334</v>
       </c>
       <c r="D18">
-        <v>0.7184712625448526</v>
+        <v>0.7265690648868031</v>
       </c>
       <c r="E18">
-        <v>0.324284670526751</v>
+        <v>0.2979986376683286</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008242681769596911</v>
+        <v>0.002659655294903891</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.64502706272228</v>
+        <v>6.767891110906248</v>
       </c>
       <c r="J18">
-        <v>0.1947692976163751</v>
+        <v>0.1564898095492708</v>
       </c>
       <c r="K18">
-        <v>2.197353430820215</v>
+        <v>1.736050036297684</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9669997356139675</v>
+        <v>0.8730158935381382</v>
       </c>
       <c r="C19">
-        <v>1.449702937526069</v>
+        <v>0.929705797903182</v>
       </c>
       <c r="D19">
-        <v>0.7128206741649592</v>
+        <v>0.7256371996440976</v>
       </c>
       <c r="E19">
-        <v>0.3216207617630715</v>
+        <v>0.297541054093557</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008253471797878831</v>
+        <v>0.002660163246319314</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.53154126474138</v>
+        <v>6.737135653359474</v>
       </c>
       <c r="J19">
-        <v>0.1930845093563107</v>
+        <v>0.1561865210614144</v>
       </c>
       <c r="K19">
-        <v>2.176444644102759</v>
+        <v>1.733258771573645</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.014847641112993</v>
+        <v>0.8749032271207682</v>
       </c>
       <c r="C20">
-        <v>1.506851900890922</v>
+        <v>0.9428294661053087</v>
       </c>
       <c r="D20">
-        <v>0.7384272678409047</v>
+        <v>0.7298573378112678</v>
       </c>
       <c r="E20">
-        <v>0.3336922973208445</v>
+        <v>0.2996116712227632</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008204889018744035</v>
+        <v>0.002657890205087987</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.04464520988259</v>
+        <v>6.875520494976683</v>
       </c>
       <c r="J20">
-        <v>0.2007189029946517</v>
+        <v>0.1575577287486425</v>
       </c>
       <c r="K20">
-        <v>2.271313040526621</v>
+        <v>1.74592671503035</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.185844631834954</v>
+        <v>0.8826751931983949</v>
       </c>
       <c r="C21">
-        <v>1.705020756017007</v>
+        <v>0.9873708023858399</v>
       </c>
       <c r="D21">
-        <v>0.827928389991456</v>
+        <v>0.74450455945464</v>
       </c>
       <c r="E21">
-        <v>0.3758801916538559</v>
+        <v>0.3067698513848427</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008040805747281635</v>
+        <v>0.00265047619133112</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.81613997247462</v>
+        <v>7.340208910184856</v>
       </c>
       <c r="J21">
-        <v>0.227397444610105</v>
+        <v>0.1622770643149067</v>
       </c>
       <c r="K21">
-        <v>2.605221307745012</v>
+        <v>1.790370925923128</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.30669455439471</v>
+        <v>0.8888306493799121</v>
       </c>
       <c r="C22">
-        <v>1.840012825513384</v>
+        <v>1.016819880792127</v>
       </c>
       <c r="D22">
-        <v>0.8894786024072801</v>
+        <v>0.7544286430703835</v>
       </c>
       <c r="E22">
-        <v>0.4048925981423395</v>
+        <v>0.311599303374571</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000793240283022595</v>
+        <v>0.002645795965781777</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.01674937259827</v>
+        <v>7.643775001054848</v>
       </c>
       <c r="J22">
-        <v>0.2457452640252171</v>
+        <v>0.1654459451010268</v>
       </c>
       <c r="K22">
-        <v>2.83690778966789</v>
+        <v>1.820832740681823</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.241257828782921</v>
+        <v>0.8854462822455957</v>
       </c>
       <c r="C23">
-        <v>1.76740062392588</v>
+        <v>1.001071024639486</v>
       </c>
       <c r="D23">
-        <v>0.8563148268940495</v>
+        <v>0.7490996761642066</v>
       </c>
       <c r="E23">
-        <v>0.3892602596998458</v>
+        <v>0.3090078227075566</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000799040381019195</v>
+        <v>0.002648278834074776</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.3715165099768</v>
+        <v>7.481764277409923</v>
       </c>
       <c r="J23">
-        <v>0.2358588701205946</v>
+        <v>0.1637468647000304</v>
       </c>
       <c r="K23">
-        <v>2.711866989415824</v>
+        <v>1.804444411960986</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.01218490032258</v>
+        <v>0.8747942253624501</v>
       </c>
       <c r="C24">
-        <v>1.503692431521927</v>
+        <v>0.9421071059248334</v>
       </c>
       <c r="D24">
-        <v>0.7370091169001967</v>
+        <v>0.7296238327793105</v>
       </c>
       <c r="E24">
-        <v>0.3330237742512168</v>
+        <v>0.2994972089925767</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008207558938580711</v>
+        <v>0.002658014187804541</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.01630618063299</v>
+        <v>6.867922220099445</v>
       </c>
       <c r="J24">
-        <v>0.2002961242019836</v>
+        <v>0.1574820083594233</v>
       </c>
       <c r="K24">
-        <v>2.266051200802508</v>
+        <v>1.745224004701129</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7952991904913631</v>
+        <v>0.8678620278080018</v>
       </c>
       <c r="C25">
-        <v>1.237376988633457</v>
+        <v>0.8799261168185808</v>
       </c>
       <c r="D25">
-        <v>0.6185829409052417</v>
+        <v>0.7101088755126455</v>
       </c>
       <c r="E25">
-        <v>0.2771813503878349</v>
+        <v>0.2898796387945239</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008440002804578852</v>
+        <v>0.002669231464149968</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.61486213264152</v>
+        <v>6.204805590287151</v>
       </c>
       <c r="J25">
-        <v>0.1649709253726996</v>
+        <v>0.1510817531107804</v>
       </c>
       <c r="K25">
-        <v>1.829930675122569</v>
+        <v>1.687339449476866</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_252/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8666075139614975</v>
+        <v>0.6539272195522301</v>
       </c>
       <c r="C2">
-        <v>0.8353175135487731</v>
+        <v>1.052138829121589</v>
       </c>
       <c r="D2">
-        <v>0.6970035400410381</v>
+        <v>0.5377032984202685</v>
       </c>
       <c r="E2">
-        <v>0.2833392684642462</v>
+        <v>0.2390096185839425</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002678115400934622</v>
+        <v>0.0008612451094847345</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.715146398380767</v>
+        <v>9.926428277479289</v>
       </c>
       <c r="J2">
-        <v>0.1466694704149489</v>
+        <v>0.1408002769005492</v>
       </c>
       <c r="K2">
-        <v>1.649774853180617</v>
+        <v>1.535963790621935</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8681249729491185</v>
+        <v>0.5666119809541783</v>
       </c>
       <c r="C3">
-        <v>0.8057964673882054</v>
+        <v>0.9315179862587684</v>
       </c>
       <c r="D3">
-        <v>0.6889004766573805</v>
+        <v>0.4858564750618086</v>
       </c>
       <c r="E3">
-        <v>0.2792393688894919</v>
+        <v>0.2145126218882751</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002684530220707585</v>
+        <v>0.0008731243584194928</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.382151246756905</v>
+        <v>8.81629299960457</v>
       </c>
       <c r="J3">
-        <v>0.1438630810630315</v>
+        <v>0.1252684980115788</v>
       </c>
       <c r="K3">
-        <v>1.627423254682128</v>
+        <v>1.349300921486901</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8702139311409951</v>
+        <v>0.5164006878608518</v>
       </c>
       <c r="C4">
-        <v>0.7880142068328269</v>
+        <v>0.8593774997593187</v>
       </c>
       <c r="D4">
-        <v>0.6843063218402676</v>
+        <v>0.455220724764331</v>
       </c>
       <c r="E4">
-        <v>0.2768845755685234</v>
+        <v>0.2000222331918167</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002688664770115384</v>
+        <v>0.0008805434815450613</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.177040593450783</v>
+        <v>8.147231472500351</v>
       </c>
       <c r="J4">
-        <v>0.1422295955840411</v>
+        <v>0.1160698032463543</v>
       </c>
       <c r="K4">
-        <v>1.615216906400576</v>
+        <v>1.239704374868268</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.871354729828937</v>
+        <v>0.4966921454902433</v>
       </c>
       <c r="C5">
-        <v>0.7808534242635687</v>
+        <v>0.8303971954815665</v>
       </c>
       <c r="D5">
-        <v>0.6825296678792938</v>
+        <v>0.4430033702245169</v>
       </c>
       <c r="E5">
-        <v>0.2759656735488107</v>
+        <v>0.1942394290082774</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002690399074928368</v>
+        <v>0.0008836022851093403</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.093282016610061</v>
+        <v>7.877186308195377</v>
       </c>
       <c r="J5">
-        <v>0.1415863492707956</v>
+        <v>0.1123957286628539</v>
       </c>
       <c r="K5">
-        <v>1.610622450493565</v>
+        <v>1.196150960586863</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8715616033363176</v>
+        <v>0.493462274613222</v>
       </c>
       <c r="C6">
-        <v>0.7796695303866272</v>
+        <v>0.8256084752322579</v>
       </c>
       <c r="D6">
-        <v>0.682240414055201</v>
+        <v>0.4409898790549676</v>
       </c>
       <c r="E6">
-        <v>0.2758155432478873</v>
+        <v>0.1932861322265325</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002690690046953119</v>
+        <v>0.0008841124462837612</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.079363127211934</v>
+        <v>7.832487569390594</v>
       </c>
       <c r="J6">
-        <v>0.141480888599375</v>
+        <v>0.1117898646545044</v>
       </c>
       <c r="K6">
-        <v>1.609882425042883</v>
+        <v>1.188981732254717</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.870228145952666</v>
+        <v>0.5161319690915604</v>
       </c>
       <c r="C7">
-        <v>0.7879172883505419</v>
+        <v>0.8589850520846767</v>
       </c>
       <c r="D7">
-        <v>0.6842819750262663</v>
+        <v>0.4550549189728201</v>
       </c>
       <c r="E7">
-        <v>0.2768720183964177</v>
+        <v>0.1999437700039053</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002688687959255764</v>
+        <v>0.0008805845853463426</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.175911716005459</v>
+        <v>8.143579702682928</v>
       </c>
       <c r="J7">
-        <v>0.1422208299626746</v>
+        <v>0.1160199648796052</v>
       </c>
       <c r="K7">
-        <v>1.615153408899005</v>
+        <v>1.239112701207091</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8668896549933152</v>
+        <v>0.623049647789486</v>
       </c>
       <c r="C8">
-        <v>0.8250668001232953</v>
+        <v>1.010108134228517</v>
       </c>
       <c r="D8">
-        <v>0.6941302798307731</v>
+        <v>0.5195558003511849</v>
       </c>
       <c r="E8">
-        <v>0.2818917704560278</v>
+        <v>0.2304382521717088</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002680286708672217</v>
+        <v>0.0008653176134505384</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.60045800844722</v>
+        <v>9.540690242547583</v>
       </c>
       <c r="J8">
-        <v>0.145683139980612</v>
+        <v>0.1353680796106076</v>
       </c>
       <c r="K8">
-        <v>1.641751875347524</v>
+        <v>1.470463526011002</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8695945567912702</v>
+        <v>0.8650656137331225</v>
       </c>
       <c r="C9">
-        <v>0.9006863102993634</v>
+        <v>1.325121525797385</v>
       </c>
       <c r="D9">
-        <v>0.7164849389782546</v>
+        <v>0.6573464990065077</v>
       </c>
       <c r="E9">
-        <v>0.293034620697064</v>
+        <v>0.2954642892208668</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002665356450182352</v>
+        <v>0.0008361668849834453</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.428359953805028</v>
+        <v>12.40905883263889</v>
       </c>
       <c r="J9">
-        <v>0.1531905914738587</v>
+        <v>0.1765394503403854</v>
       </c>
       <c r="K9">
-        <v>1.706046155298111</v>
+        <v>1.971958624178058</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8773234035767246</v>
+        <v>1.071555618422963</v>
       </c>
       <c r="C10">
-        <v>0.9579972347166859</v>
+        <v>1.573579184795108</v>
       </c>
       <c r="D10">
-        <v>0.7347915734137871</v>
+        <v>0.7684445792709766</v>
       </c>
       <c r="E10">
-        <v>0.3020276605219081</v>
+        <v>0.3478420550488011</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002655315834802678</v>
+        <v>0.0008148915995149434</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>7.034584969946252</v>
+        <v>14.64242984151937</v>
       </c>
       <c r="J10">
-        <v>0.159153970347802</v>
+        <v>0.2096670305940762</v>
       </c>
       <c r="K10">
-        <v>1.760821337617585</v>
+        <v>2.382901215461914</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.882109067168102</v>
+        <v>1.174267283768302</v>
       </c>
       <c r="C11">
-        <v>0.9844649502055631</v>
+        <v>1.691880403350069</v>
       </c>
       <c r="D11">
-        <v>0.7435350156981997</v>
+        <v>0.8219613347064296</v>
       </c>
       <c r="E11">
-        <v>0.3062972261427745</v>
+        <v>0.3730676120693204</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002650946956166598</v>
+        <v>0.0008051494118505565</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.310106922087243</v>
+        <v>15.69901891578087</v>
       </c>
       <c r="J11">
-        <v>0.1619663494312533</v>
+        <v>0.2256188404926718</v>
       </c>
       <c r="K11">
-        <v>1.787408796128517</v>
+        <v>2.582848658156308</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8841057461811772</v>
+        <v>1.214692915339128</v>
       </c>
       <c r="C12">
-        <v>0.9945457328165048</v>
+        <v>1.737600727254858</v>
       </c>
       <c r="D12">
-        <v>0.7469061955026461</v>
+        <v>0.8427419623063201</v>
       </c>
       <c r="E12">
-        <v>0.3079399331358061</v>
+        <v>0.3828626062932514</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002649320924890626</v>
+        <v>0.0008014413117727271</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.414417000860738</v>
+        <v>16.10633027317681</v>
       </c>
       <c r="J12">
-        <v>0.1630458236218857</v>
+        <v>0.2318130060703822</v>
       </c>
       <c r="K12">
-        <v>1.79771944223512</v>
+        <v>2.660830586671722</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8836674919096765</v>
+        <v>1.205913535323106</v>
       </c>
       <c r="C13">
-        <v>0.9923720588308811</v>
+        <v>1.727710056220531</v>
       </c>
       <c r="D13">
-        <v>0.7461774655297404</v>
+        <v>0.8382420006335565</v>
       </c>
       <c r="E13">
-        <v>0.3075849903972596</v>
+        <v>0.3807415337981794</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00264966986107071</v>
+        <v>0.0008022409367376461</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.391952833564972</v>
+        <v>16.01826341796169</v>
       </c>
       <c r="J13">
-        <v>0.1628126925598963</v>
+        <v>0.2304716653517147</v>
       </c>
       <c r="K13">
-        <v>1.795488033302576</v>
+        <v>2.643927781822754</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.882269627625675</v>
+        <v>1.177560695779164</v>
       </c>
       <c r="C14">
-        <v>0.9852931334204982</v>
+        <v>1.695622303408811</v>
       </c>
       <c r="D14">
-        <v>0.7438111549629411</v>
+        <v>0.8236600866668766</v>
       </c>
       <c r="E14">
-        <v>0.3064318518873819</v>
+        <v>0.3738683209980564</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002650812613884499</v>
+        <v>0.0008048447868002724</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.318688987138046</v>
+        <v>15.7323755023138</v>
       </c>
       <c r="J14">
-        <v>0.1620548671213413</v>
+        <v>0.2261251873833032</v>
       </c>
       <c r="K14">
-        <v>1.788252183988988</v>
+        <v>2.589216293611287</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8814374725554615</v>
+        <v>1.160402095150431</v>
       </c>
       <c r="C15">
-        <v>0.9809646746768976</v>
+        <v>1.676093146473704</v>
       </c>
       <c r="D15">
-        <v>0.7423695786784208</v>
+        <v>0.8147981918200173</v>
       </c>
       <c r="E15">
-        <v>0.3057289032594213</v>
+        <v>0.369691254511558</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002651516271700635</v>
+        <v>0.0008064369300153354</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>7.27380999416755</v>
+        <v>15.55824416134595</v>
       </c>
       <c r="J15">
-        <v>0.1615925687668067</v>
+        <v>0.223483731102931</v>
       </c>
       <c r="K15">
-        <v>1.783851677746554</v>
+        <v>2.556012218671128</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8770363581663219</v>
+        <v>1.065041510617476</v>
       </c>
       <c r="C16">
-        <v>0.9562755736632766</v>
+        <v>1.565967343201521</v>
       </c>
       <c r="D16">
-        <v>0.7342285717370771</v>
+        <v>0.7650140802731755</v>
       </c>
       <c r="E16">
-        <v>0.3017522478784898</v>
+        <v>0.3462250089869343</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002655605331724922</v>
+        <v>0.0008155261973086888</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>7.016574916845713</v>
+        <v>14.57430716345436</v>
       </c>
       <c r="J16">
-        <v>0.1589721930246242</v>
+        <v>0.2086444524580457</v>
       </c>
       <c r="K16">
-        <v>1.75911759327505</v>
+        <v>2.37012791786313</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8746629441981497</v>
+        <v>1.008963342792384</v>
       </c>
       <c r="C17">
-        <v>0.9412319072945934</v>
+        <v>1.499866668461777</v>
       </c>
       <c r="D17">
-        <v>0.7293411085426271</v>
+        <v>0.7352922814344254</v>
       </c>
       <c r="E17">
-        <v>0.2993586035928715</v>
+        <v>0.3322144462266721</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002658164576114101</v>
+        <v>0.000821079436916949</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.858713416429197</v>
+        <v>13.98198651133501</v>
       </c>
       <c r="J17">
-        <v>0.157390304479847</v>
+        <v>0.1997842973209316</v>
       </c>
       <c r="K17">
-        <v>1.744373445107584</v>
+        <v>2.259682358476795</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8734172220201799</v>
+        <v>0.9775159361151395</v>
       </c>
       <c r="C18">
-        <v>0.9326164656924334</v>
+        <v>1.462332499212494</v>
       </c>
       <c r="D18">
-        <v>0.7265690648868031</v>
+        <v>0.7184712625447673</v>
       </c>
       <c r="E18">
-        <v>0.2979986376683286</v>
+        <v>0.32428467052695</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002659655294903891</v>
+        <v>0.0008242681772425937</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.767891110906248</v>
+        <v>13.64502706272231</v>
       </c>
       <c r="J18">
-        <v>0.1564898095492708</v>
+        <v>0.1947692976168014</v>
       </c>
       <c r="K18">
-        <v>1.736050036297684</v>
+        <v>2.197353430820385</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8730158935381382</v>
+        <v>0.9669997356138822</v>
       </c>
       <c r="C19">
-        <v>0.929705797903182</v>
+        <v>1.449702937525501</v>
       </c>
       <c r="D19">
-        <v>0.7256371996440976</v>
+        <v>0.7128206741650445</v>
       </c>
       <c r="E19">
-        <v>0.297541054093557</v>
+        <v>0.3216207617631994</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002660163246319314</v>
+        <v>0.0008253471799769528</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.737135653359474</v>
+        <v>13.53154126474121</v>
       </c>
       <c r="J19">
-        <v>0.1561865210614144</v>
+        <v>0.1930845093561828</v>
       </c>
       <c r="K19">
-        <v>1.733258771573645</v>
+        <v>2.176444644102986</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8749032271207682</v>
+        <v>1.014847641113306</v>
       </c>
       <c r="C20">
-        <v>0.9428294661053087</v>
+        <v>1.506851900891832</v>
       </c>
       <c r="D20">
-        <v>0.7298573378112678</v>
+        <v>0.7384272678409616</v>
       </c>
       <c r="E20">
-        <v>0.2996116712227632</v>
+        <v>0.3336922973207805</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002657890205087987</v>
+        <v>0.0008204889016008445</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.875520494976683</v>
+        <v>14.04464520988245</v>
       </c>
       <c r="J20">
-        <v>0.1575577287486425</v>
+        <v>0.2007189029947369</v>
       </c>
       <c r="K20">
-        <v>1.74592671503035</v>
+        <v>2.271313040526223</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8826751931983949</v>
+        <v>1.185844631834925</v>
       </c>
       <c r="C21">
-        <v>0.9873708023858399</v>
+        <v>1.705020756017177</v>
       </c>
       <c r="D21">
-        <v>0.74450455945464</v>
+        <v>0.8279283899917402</v>
       </c>
       <c r="E21">
-        <v>0.3067698513848427</v>
+        <v>0.3758801916540051</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00265047619133112</v>
+        <v>0.0008040805743440831</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>7.340208910184856</v>
+        <v>15.81613997247501</v>
       </c>
       <c r="J21">
-        <v>0.1622770643149067</v>
+        <v>0.2273974446100198</v>
       </c>
       <c r="K21">
-        <v>1.790370925923128</v>
+        <v>2.605221307745268</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8888306493799121</v>
+        <v>1.306694554394483</v>
       </c>
       <c r="C22">
-        <v>1.016819880792127</v>
+        <v>1.840012825513782</v>
       </c>
       <c r="D22">
-        <v>0.7544286430703835</v>
+        <v>0.8894786024076495</v>
       </c>
       <c r="E22">
-        <v>0.311599303374571</v>
+        <v>0.4048925981423963</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002645795965781777</v>
+        <v>0.0007932402830298992</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.643775001054848</v>
+        <v>17.01674937259827</v>
       </c>
       <c r="J22">
-        <v>0.1654459451010268</v>
+        <v>0.2457452640257003</v>
       </c>
       <c r="K22">
-        <v>1.820832740681823</v>
+        <v>2.836907789667947</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8854462822455957</v>
+        <v>1.241257828783233</v>
       </c>
       <c r="C23">
-        <v>1.001071024639486</v>
+        <v>1.767400623925482</v>
       </c>
       <c r="D23">
-        <v>0.7490996761642066</v>
+        <v>0.8563148268931968</v>
       </c>
       <c r="E23">
-        <v>0.3090078227075566</v>
+        <v>0.3892602596999168</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002648278834074776</v>
+        <v>0.0007990403807551769</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.481764277409923</v>
+        <v>16.37151650997703</v>
       </c>
       <c r="J23">
-        <v>0.1637468647000304</v>
+        <v>0.2358588701207651</v>
       </c>
       <c r="K23">
-        <v>1.804444411960986</v>
+        <v>2.711866989415967</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8747942253624501</v>
+        <v>1.012184900322751</v>
       </c>
       <c r="C24">
-        <v>0.9421071059248334</v>
+        <v>1.503692431520562</v>
       </c>
       <c r="D24">
-        <v>0.7296238327793105</v>
+        <v>0.7370091168997703</v>
       </c>
       <c r="E24">
-        <v>0.2994972089925767</v>
+        <v>0.333023774251167</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002658014187804541</v>
+        <v>0.0008207558940234172</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.867922220099445</v>
+        <v>14.01630618063305</v>
       </c>
       <c r="J24">
-        <v>0.1574820083594233</v>
+        <v>0.2002961242019268</v>
       </c>
       <c r="K24">
-        <v>1.745224004701129</v>
+        <v>2.266051200802423</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8678620278080018</v>
+        <v>0.7952991904914768</v>
       </c>
       <c r="C25">
-        <v>0.8799261168185808</v>
+        <v>1.237376988633173</v>
       </c>
       <c r="D25">
-        <v>0.7101088755126455</v>
+        <v>0.6185829409052701</v>
       </c>
       <c r="E25">
-        <v>0.2898796387945239</v>
+        <v>0.2771813503876857</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002669231464149968</v>
+        <v>0.0008440002804961912</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.204805590287151</v>
+        <v>11.61486213264209</v>
       </c>
       <c r="J25">
-        <v>0.1510817531107804</v>
+        <v>0.1649709253729696</v>
       </c>
       <c r="K25">
-        <v>1.687339449476866</v>
+        <v>1.829930675122711</v>
       </c>
       <c r="L25">
         <v>0</v>
